--- a/dataset/region/sexo_edad_antofagasta.xlsx
+++ b/dataset/region/sexo_edad_antofagasta.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kirit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfurn\Desktop\proyectovdd\errores\dashboard_seguridad\dataset\region\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25AD767F-C8C3-4709-AC22-7F27FFAFE15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8029A39-9EFA-4CF4-A4EB-71BA0456CC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A7839AC3-B251-4F49-A43B-BD219A9DCD71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7839AC3-B251-4F49-A43B-BD219A9DCD71}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -181,28 +181,28 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,13 +521,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8623EC-4125-44E1-92EB-80C845ABDB4D}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W54" sqref="W53:W54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +590,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -655,7 +655,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -720,7 +720,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -785,7 +785,7 @@
         <v>4424</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -850,7 +850,7 @@
         <v>6273</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -915,7 +915,7 @@
         <v>3371</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -980,7 +980,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>15469</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>4293</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>7806</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>5318</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>19148</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>3</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>3</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>8717</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>3</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>14079</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>8689</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>3</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>3</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>3</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>34617</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>15</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>15</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>15</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>15</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>15</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>15</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>15</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>3741</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>15</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>15</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>15</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>4549</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>15</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>5767</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>15</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>15</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>15</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>15</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>13171</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>15</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>15</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>15</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>5919</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>15</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>7311</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>15</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>15</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>15</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>15</v>
       </c>

--- a/dataset/region/sexo_edad_antofagasta.xlsx
+++ b/dataset/region/sexo_edad_antofagasta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfurn\Desktop\proyectovdd\errores\dashboard_seguridad\dataset\region\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8029A39-9EFA-4CF4-A4EB-71BA0456CC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F2658F-1D9B-4A41-8013-6BDE39452A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7839AC3-B251-4F49-A43B-BD219A9DCD71}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="34">
   <si>
     <t>Tipo Participante</t>
   </si>
@@ -85,25 +85,72 @@
   <si>
     <t>VICTIMARIO</t>
   </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -118,6 +165,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="GobCL"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -128,14 +188,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1D89C8"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF1D89C8"/>
+        <bgColor rgb="FF1D89C8"/>
       </patternFill>
     </fill>
   </fills>
@@ -179,31 +239,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,3195 +576,3198 @@
   <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection sqref="A1:U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4">
-        <v>2006</v>
-      </c>
-      <c r="F1" s="4">
-        <v>2007</v>
-      </c>
-      <c r="G1" s="4">
-        <v>2008</v>
-      </c>
-      <c r="H1" s="4">
-        <v>2009</v>
-      </c>
-      <c r="I1" s="4">
-        <v>2010</v>
-      </c>
-      <c r="J1" s="4">
-        <v>2011</v>
-      </c>
-      <c r="K1" s="4">
-        <v>2012</v>
-      </c>
-      <c r="L1" s="4">
-        <v>2013</v>
-      </c>
-      <c r="M1" s="4">
-        <v>2014</v>
-      </c>
-      <c r="N1" s="4">
-        <v>2015</v>
-      </c>
-      <c r="O1" s="4">
-        <v>2016</v>
-      </c>
-      <c r="P1" s="4">
-        <v>2017</v>
-      </c>
-      <c r="Q1" s="4">
-        <v>2018</v>
-      </c>
-      <c r="R1" s="4">
-        <v>2019</v>
-      </c>
-      <c r="S1" s="4">
-        <v>2020</v>
-      </c>
-      <c r="T1" s="4">
-        <v>2021</v>
-      </c>
-      <c r="U1" s="4">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="3">
         <v>185</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="3">
         <v>233</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="3">
         <v>273</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="3">
         <v>352</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="3">
         <v>355</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="3">
         <v>402</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="3">
         <v>434</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="3">
         <v>415</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="3">
         <v>414</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="3">
         <v>383</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="3">
         <v>373</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="3">
         <v>319</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="3">
         <v>326</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="3">
         <v>392</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="3">
         <v>362</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="3">
         <v>254</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="3">
         <v>285</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="3">
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="3">
         <v>341</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="3">
         <v>354</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="3">
         <v>397</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="3">
         <v>562</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="3">
         <v>634</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="3">
         <v>668</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="3">
         <v>651</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="3">
         <v>699</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="3">
         <v>732</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="3">
         <v>645</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="3">
         <v>644</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="3">
         <v>541</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="3">
         <v>475</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="3">
         <v>461</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="3">
         <v>408</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="3">
         <v>237</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="3">
         <v>263</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="3">
         <v>503</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="3">
         <v>2669</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="3">
         <v>2586</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="3">
         <v>3241</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="3">
         <v>4006</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="3">
         <v>4930</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="3">
         <v>5089</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="3">
         <v>5991</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="3">
         <v>5815</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="3">
         <v>5766</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="3">
         <v>5676</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="3">
         <v>5416</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="3">
         <v>4871</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="3">
         <v>4777</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="3">
         <v>4525</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="3">
         <v>4518</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="3">
         <v>3557</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="3">
         <v>3930</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="3">
         <v>4424</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="3">
         <v>3416</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="3">
         <v>3129</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="3">
         <v>3828</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="3">
         <v>4571</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="3">
         <v>6057</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="3">
         <v>6273</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="3">
         <v>7225</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="3">
         <v>6901</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="3">
         <v>6258</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="3">
         <v>6307</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="3">
         <v>6005</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="3">
         <v>5332</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="3">
         <v>5291</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="3">
         <v>5017</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="3">
         <v>5031</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="3">
         <v>4376</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="3">
         <v>5080</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="3">
         <v>6273</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="3">
         <v>1654</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="3">
         <v>1524</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="3">
         <v>1856</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="3">
         <v>2385</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="3">
         <v>3155</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="3">
         <v>3449</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="3">
         <v>3998</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="3">
         <v>3772</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="3">
         <v>3329</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="3">
         <v>3354</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="3">
         <v>3085</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="3">
         <v>2911</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="3">
         <v>2878</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="3">
         <v>2541</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="3">
         <v>2751</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="3">
         <v>2444</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="3">
         <v>2688</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="3">
         <v>3371</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>224</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="3">
         <v>175</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="3">
         <v>267</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="3">
         <v>319</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="3">
         <v>417</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="3">
         <v>485</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="3">
         <v>554</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="3">
         <v>553</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="3">
         <v>464</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="3">
         <v>452</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="3">
         <v>441</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="3">
         <v>374</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="3">
         <v>418</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="3">
         <v>413</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="3">
         <v>465</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="3">
         <v>366</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="3">
         <v>504</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="3">
         <v>555</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="7">
-        <v>3</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
+      <c r="H8" s="3">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3">
         <v>7</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="3">
         <v>11</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="3">
         <v>7</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="3">
         <v>4</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="3">
         <v>4</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="3">
         <v>4</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="3">
         <v>7</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="3">
         <v>7</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="3">
         <v>6</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="3">
         <v>10</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="3">
         <v>7</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="3">
         <v>13</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="4">
         <v>8489</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="4">
         <v>8004</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="4">
         <v>9863</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="4">
         <v>12196</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="4">
         <v>15551</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="4">
         <v>16373</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="4">
         <v>18864</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="4">
         <v>18162</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="4">
         <v>16967</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="4">
         <v>16821</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="4">
         <v>15968</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="4">
         <v>14355</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="4">
         <v>14172</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="4">
         <v>13355</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="4">
         <v>13545</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="4">
         <v>11241</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="4">
         <v>12763</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="4">
         <v>15469</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="3">
         <v>240</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="3">
         <v>290</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="3">
         <v>351</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="3">
         <v>380</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="3">
         <v>401</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="3">
         <v>438</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="3">
         <v>473</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="3">
         <v>423</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="3">
         <v>422</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="3">
         <v>341</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="3">
         <v>339</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="3">
         <v>259</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="3">
         <v>251</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="3">
         <v>363</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="3">
         <v>307</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="3">
         <v>174</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="3">
         <v>160</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="3">
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="3">
         <v>307</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="3">
         <v>318</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="3">
         <v>404</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="3">
         <v>453</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="3">
         <v>531</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="3">
         <v>528</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="3">
         <v>528</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="3">
         <v>543</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="3">
         <v>521</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="3">
         <v>558</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="3">
         <v>500</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="3">
         <v>454</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="3">
         <v>382</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="3">
         <v>387</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="3">
         <v>377</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="3">
         <v>211</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T11" s="3">
         <v>175</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U11" s="3">
         <v>432</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="3">
         <v>2784</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="3">
         <v>2409</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="3">
         <v>3231</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="3">
         <v>3767</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="3">
         <v>5057</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="3">
         <v>5413</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="3">
         <v>6685</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="3">
         <v>6399</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="3">
         <v>6171</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="3">
         <v>5737</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="5">
         <v>5654</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="3">
         <v>4670</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="3">
         <v>4484</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="3">
         <v>4303</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="3">
         <v>4386</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="3">
         <v>3262</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="3">
         <v>3366</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="3">
         <v>4293</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="3">
         <v>4158</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="3">
         <v>3543</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="3">
         <v>3880</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="3">
         <v>4913</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="3">
         <v>6729</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="3">
         <v>7362</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="3">
         <v>8241</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="3">
         <v>8201</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="3">
         <v>7695</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="3">
         <v>7446</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="3">
         <v>7527</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="3">
         <v>6342</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="3">
         <v>6086</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="3">
         <v>5678</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="3">
         <v>6085</v>
       </c>
-      <c r="S13" s="7">
+      <c r="S13" s="3">
         <v>5154</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T13" s="3">
         <v>5796</v>
       </c>
-      <c r="U13" s="7">
+      <c r="U13" s="3">
         <v>7806</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="3">
         <v>2640</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="3">
         <v>2277</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="3">
         <v>2576</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="3">
         <v>3256</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="3">
         <v>4766</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="3">
         <v>5448</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="3">
         <v>5878</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="3">
         <v>5675</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="3">
         <v>5315</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="3">
         <v>5162</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="3">
         <v>5266</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="3">
         <v>4658</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="3">
         <v>4448</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="3">
         <v>4220</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="3">
         <v>4613</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="3">
         <v>3712</v>
       </c>
-      <c r="T14" s="7">
+      <c r="T14" s="3">
         <v>4097</v>
       </c>
-      <c r="U14" s="7">
+      <c r="U14" s="3">
         <v>5318</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="6" t="s">
+    <row r="15" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="3">
         <v>341</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="3">
         <v>307</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="3">
         <v>344</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="3">
         <v>463</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="3">
         <v>651</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="3">
         <v>792</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="3">
         <v>829</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="3">
         <v>800</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="3">
         <v>740</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="3">
         <v>763</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="3">
         <v>749</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="3">
         <v>677</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="3">
         <v>738</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="3">
         <v>765</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="3">
         <v>796</v>
       </c>
-      <c r="S15" s="7">
+      <c r="S15" s="3">
         <v>592</v>
       </c>
-      <c r="T15" s="7">
+      <c r="T15" s="3">
         <v>775</v>
       </c>
-      <c r="U15" s="7">
+      <c r="U15" s="3">
         <v>1033</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="7">
-        <v>3</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
         <v>5</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="3">
         <v>1</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="3">
         <v>0</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="3">
         <v>2</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="3">
         <v>4</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="3">
         <v>6</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="3">
         <v>11</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="3">
         <v>4</v>
       </c>
-      <c r="M16" s="7">
-        <v>3</v>
-      </c>
-      <c r="N16" s="7">
+      <c r="M16" s="3">
+        <v>3</v>
+      </c>
+      <c r="N16" s="3">
         <v>8</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="3">
         <v>4</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="3">
         <v>7</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="3">
         <v>18</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="3">
         <v>8</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="3">
         <v>12</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T16" s="3">
         <v>9</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U16" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="6" t="s">
+    <row r="17" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="4">
         <v>10473</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="4">
         <v>9149</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="4">
         <v>10787</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="4">
         <v>13232</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="4">
         <v>18137</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="4">
         <v>19985</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="4">
         <v>22640</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="4">
         <v>22052</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="4">
         <v>20868</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="4">
         <v>20010</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="4">
         <v>20043</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="4">
         <v>17064</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="4">
         <v>16396</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="4">
         <v>15734</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R17" s="4">
         <v>16572</v>
       </c>
-      <c r="S17" s="8">
+      <c r="S17" s="4">
         <v>13117</v>
       </c>
-      <c r="T17" s="8">
+      <c r="T17" s="4">
         <v>14378</v>
       </c>
-      <c r="U17" s="8">
+      <c r="U17" s="4">
         <v>19148</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="3">
         <v>425</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="3">
         <v>523</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="3">
         <v>624</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="3">
         <v>732</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="3">
         <v>756</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="3">
         <v>840</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="3">
         <v>907</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="3">
         <v>838</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="3">
         <v>836</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="3">
         <v>724</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="3">
         <v>712</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="3">
         <v>578</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="3">
         <v>577</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="3">
         <v>755</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="3">
         <v>669</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S18" s="3">
         <v>428</v>
       </c>
-      <c r="T18" s="7">
+      <c r="T18" s="3">
         <v>445</v>
       </c>
-      <c r="U18" s="7">
+      <c r="U18" s="3">
         <v>595</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="3">
         <v>648</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="3">
         <v>672</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="3">
         <v>801</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="3">
         <v>1015</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="3">
         <v>1165</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="3">
         <v>1196</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="3">
         <v>1179</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="3">
         <v>1242</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="3">
         <v>1253</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="3">
         <v>1203</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="3">
         <v>1144</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="3">
         <v>995</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="3">
         <v>857</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="3">
         <v>848</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="3">
         <v>785</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S19" s="3">
         <v>448</v>
       </c>
-      <c r="T19" s="7">
+      <c r="T19" s="3">
         <v>438</v>
       </c>
-      <c r="U19" s="7">
+      <c r="U19" s="3">
         <v>935</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6" t="s">
+    <row r="20" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="3">
         <v>5453</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="3">
         <v>4995</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="3">
         <v>6472</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="3">
         <v>7773</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="3">
         <v>9987</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="3">
         <v>10502</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="3">
         <v>12676</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="3">
         <v>12214</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="3">
         <v>11937</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="3">
         <v>11413</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="3">
         <v>11070</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="3">
         <v>9541</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="3">
         <v>9261</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="Q20" s="3">
         <v>8828</v>
       </c>
-      <c r="R20" s="7">
+      <c r="R20" s="3">
         <v>8904</v>
       </c>
-      <c r="S20" s="7">
+      <c r="S20" s="3">
         <v>6819</v>
       </c>
-      <c r="T20" s="7">
+      <c r="T20" s="3">
         <v>7296</v>
       </c>
-      <c r="U20" s="7">
+      <c r="U20" s="3">
         <v>8717</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="6" t="s">
+    <row r="21" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="3">
         <v>7574</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="3">
         <v>6672</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="3">
         <v>7708</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="3">
         <v>9484</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="3">
         <v>12786</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="3">
         <v>13635</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="3">
         <v>15466</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="3">
         <v>15102</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="3">
         <v>13953</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="3">
         <v>13753</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="3">
         <v>13532</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="3">
         <v>11674</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="3">
         <v>11377</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="3">
         <v>10695</v>
       </c>
-      <c r="R21" s="7">
+      <c r="R21" s="3">
         <v>11116</v>
       </c>
-      <c r="S21" s="7">
+      <c r="S21" s="3">
         <v>9530</v>
       </c>
-      <c r="T21" s="7">
+      <c r="T21" s="3">
         <v>10876</v>
       </c>
-      <c r="U21" s="7">
+      <c r="U21" s="3">
         <v>14079</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="6" t="s">
+    <row r="22" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="3">
         <v>4294</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="3">
         <v>3801</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="3">
         <v>4432</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="3">
         <v>5641</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="3">
         <v>7921</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="3">
         <v>8897</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="3">
         <v>9876</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="3">
         <v>9447</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="3">
         <v>8644</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="3">
         <v>8516</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="3">
         <v>8351</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="3">
         <v>7569</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="3">
         <v>7326</v>
       </c>
-      <c r="Q22" s="7">
+      <c r="Q22" s="3">
         <v>6761</v>
       </c>
-      <c r="R22" s="7">
+      <c r="R22" s="3">
         <v>7364</v>
       </c>
-      <c r="S22" s="7">
+      <c r="S22" s="3">
         <v>6156</v>
       </c>
-      <c r="T22" s="7">
+      <c r="T22" s="3">
         <v>6785</v>
       </c>
-      <c r="U22" s="7">
+      <c r="U22" s="3">
         <v>8689</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="6" t="s">
+    <row r="23" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="3">
         <v>565</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="3">
         <v>482</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="3">
         <v>611</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="3">
         <v>782</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="3">
         <v>1068</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="3">
         <v>1277</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="3">
         <v>1383</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="3">
         <v>1353</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="3">
         <v>1204</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="3">
         <v>1215</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="3">
         <v>1190</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="3">
         <v>1051</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="3">
         <v>1156</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="Q23" s="3">
         <v>1178</v>
       </c>
-      <c r="R23" s="7">
+      <c r="R23" s="3">
         <v>1261</v>
       </c>
-      <c r="S23" s="7">
+      <c r="S23" s="3">
         <v>958</v>
       </c>
-      <c r="T23" s="7">
+      <c r="T23" s="3">
         <v>1279</v>
       </c>
-      <c r="U23" s="7">
+      <c r="U23" s="3">
         <v>1588</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="6" t="s">
+    <row r="24" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="7">
-        <v>3</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
         <v>8</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="3">
         <v>2</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="3">
         <v>1</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="3">
         <v>5</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="3">
         <v>11</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="3">
         <v>17</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="3">
         <v>18</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="3">
         <v>8</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="3">
         <v>7</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="3">
         <v>12</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="3">
         <v>11</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="3">
         <v>14</v>
       </c>
-      <c r="Q24" s="7">
+      <c r="Q24" s="3">
         <v>24</v>
       </c>
-      <c r="R24" s="7">
+      <c r="R24" s="3">
         <v>18</v>
       </c>
-      <c r="S24" s="7">
+      <c r="S24" s="3">
         <v>19</v>
       </c>
-      <c r="T24" s="7">
+      <c r="T24" s="3">
         <v>22</v>
       </c>
-      <c r="U24" s="7">
+      <c r="U24" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="6" t="s">
+    <row r="25" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="4">
         <v>18962</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="4">
         <v>17153</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="4">
         <v>20650</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="4">
         <v>25428</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="4">
         <v>33688</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="4">
         <v>36358</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="4">
         <v>41504</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="4">
         <v>40214</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="4">
         <v>37835</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="4">
         <v>36831</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="4">
         <v>36011</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25" s="4">
         <v>31419</v>
       </c>
-      <c r="P25" s="8">
+      <c r="P25" s="4">
         <v>30568</v>
       </c>
-      <c r="Q25" s="8">
+      <c r="Q25" s="4">
         <v>29089</v>
       </c>
-      <c r="R25" s="8">
+      <c r="R25" s="4">
         <v>30117</v>
       </c>
-      <c r="S25" s="8">
+      <c r="S25" s="4">
         <v>24358</v>
       </c>
-      <c r="T25" s="8">
+      <c r="T25" s="4">
         <v>27141</v>
       </c>
-      <c r="U25" s="8">
+      <c r="U25" s="4">
         <v>34617</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="3">
         <v>63</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="3">
         <v>50</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="3">
         <v>39</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="3">
         <v>31</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="3">
         <v>40</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="3">
         <v>42</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="3">
         <v>34</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="3">
         <v>46</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="3">
         <v>21</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="3">
         <v>14</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="3">
         <v>17</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="3">
         <v>11</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="3">
         <v>7</v>
       </c>
-      <c r="Q26" s="7">
-        <v>3</v>
-      </c>
-      <c r="R26" s="7">
+      <c r="Q26" s="3">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3">
         <v>1</v>
       </c>
-      <c r="S26" s="7">
-        <v>3</v>
-      </c>
-      <c r="T26" s="7">
+      <c r="S26" s="3">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3">
         <v>0</v>
       </c>
-      <c r="U26" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="U26" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="3">
         <v>452</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="3">
         <v>275</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="3">
         <v>292</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="3">
         <v>335</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="3">
         <v>396</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="3">
         <v>424</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="3">
         <v>481</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="3">
         <v>609</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="3">
         <v>494</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="3">
         <v>388</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="3">
         <v>409</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O27" s="3">
         <v>351</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="3">
         <v>277</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="Q27" s="3">
         <v>231</v>
       </c>
-      <c r="R27" s="7">
+      <c r="R27" s="3">
         <v>283</v>
       </c>
-      <c r="S27" s="7">
+      <c r="S27" s="3">
         <v>144</v>
       </c>
-      <c r="T27" s="7">
+      <c r="T27" s="3">
         <v>82</v>
       </c>
-      <c r="U27" s="7">
+      <c r="U27" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="3">
         <v>3058</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="3">
         <v>1926</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="3">
         <v>1553</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="3">
         <v>1533</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="3">
         <v>1734</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="3">
         <v>1824</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="3">
         <v>2428</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="3">
         <v>2337</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="3">
         <v>2186</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="3">
         <v>2207</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="3">
         <v>2097</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O28" s="3">
         <v>1870</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P28" s="3">
         <v>2179</v>
       </c>
-      <c r="Q28" s="7">
+      <c r="Q28" s="3">
         <v>2093</v>
       </c>
-      <c r="R28" s="7">
+      <c r="R28" s="3">
         <v>2693</v>
       </c>
-      <c r="S28" s="7">
+      <c r="S28" s="3">
         <v>1772</v>
       </c>
-      <c r="T28" s="7">
+      <c r="T28" s="3">
         <v>1558</v>
       </c>
-      <c r="U28" s="7">
+      <c r="U28" s="3">
         <v>1370</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="3">
         <v>1294</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="3">
         <v>1074</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="3">
         <v>952</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="3">
         <v>1147</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="3">
         <v>1204</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="3">
         <v>1440</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="3">
         <v>1869</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="3">
         <v>1775</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="3">
         <v>1723</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="3">
         <v>1681</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="3">
         <v>1787</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O29" s="3">
         <v>1757</v>
       </c>
-      <c r="P29" s="7">
+      <c r="P29" s="3">
         <v>1958</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="Q29" s="3">
         <v>1929</v>
       </c>
-      <c r="R29" s="7">
+      <c r="R29" s="3">
         <v>2235</v>
       </c>
-      <c r="S29" s="7">
+      <c r="S29" s="3">
         <v>1766</v>
       </c>
-      <c r="T29" s="7">
+      <c r="T29" s="3">
         <v>1677</v>
       </c>
-      <c r="U29" s="7">
+      <c r="U29" s="3">
         <v>1544</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="3">
         <v>413</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="3">
         <v>422</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="3">
         <v>395</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="3">
         <v>452</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="3">
         <v>514</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="3">
         <v>626</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="3">
         <v>713</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="3">
         <v>708</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="3">
         <v>641</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="3">
         <v>654</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N30" s="3">
         <v>773</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O30" s="3">
         <v>638</v>
       </c>
-      <c r="P30" s="7">
+      <c r="P30" s="3">
         <v>770</v>
       </c>
-      <c r="Q30" s="7">
+      <c r="Q30" s="3">
         <v>756</v>
       </c>
-      <c r="R30" s="7">
+      <c r="R30" s="3">
         <v>905</v>
       </c>
-      <c r="S30" s="7">
+      <c r="S30" s="3">
         <v>709</v>
       </c>
-      <c r="T30" s="7">
+      <c r="T30" s="3">
         <v>631</v>
       </c>
-      <c r="U30" s="7">
+      <c r="U30" s="3">
         <v>634</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="3">
         <v>35</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="3">
         <v>29</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="3">
         <v>36</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="3">
         <v>50</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="3">
         <v>29</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="3">
         <v>44</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="3">
         <v>63</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="3">
         <v>51</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="3">
         <v>49</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="3">
         <v>53</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="3">
         <v>54</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31" s="3">
         <v>59</v>
       </c>
-      <c r="P31" s="7">
+      <c r="P31" s="3">
         <v>57</v>
       </c>
-      <c r="Q31" s="7">
+      <c r="Q31" s="3">
         <v>77</v>
       </c>
-      <c r="R31" s="7">
+      <c r="R31" s="3">
         <v>89</v>
       </c>
-      <c r="S31" s="7">
+      <c r="S31" s="3">
         <v>53</v>
       </c>
-      <c r="T31" s="7">
+      <c r="T31" s="3">
         <v>50</v>
       </c>
-      <c r="U31" s="7">
+      <c r="U31" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="3">
         <v>1</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="3">
         <v>2</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="3">
         <v>1</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="3">
         <v>1</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="3">
         <v>1</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O32" s="3">
         <v>2</v>
       </c>
-      <c r="P32" s="7">
+      <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="7">
+      <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="7">
-        <v>3</v>
-      </c>
-      <c r="S32" s="7">
+      <c r="R32" s="3">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3">
         <v>4</v>
       </c>
-      <c r="T32" s="7">
+      <c r="T32" s="3">
         <v>0</v>
       </c>
-      <c r="U32" s="7">
+      <c r="U32" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="4">
         <v>5315</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="4">
         <v>3776</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="4">
         <v>3268</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="4">
         <v>3548</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="4">
         <v>3917</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="4">
         <v>4402</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="4">
         <v>5588</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="4">
         <v>5526</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="4">
         <v>5115</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M33" s="4">
         <v>4998</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N33" s="4">
         <v>5138</v>
       </c>
-      <c r="O33" s="8">
+      <c r="O33" s="4">
         <v>4688</v>
       </c>
-      <c r="P33" s="8">
+      <c r="P33" s="4">
         <v>5248</v>
       </c>
-      <c r="Q33" s="8">
+      <c r="Q33" s="4">
         <v>5089</v>
       </c>
-      <c r="R33" s="8">
+      <c r="R33" s="4">
         <v>6209</v>
       </c>
-      <c r="S33" s="8">
+      <c r="S33" s="4">
         <v>4451</v>
       </c>
-      <c r="T33" s="8">
+      <c r="T33" s="4">
         <v>3998</v>
       </c>
-      <c r="U33" s="8">
+      <c r="U33" s="4">
         <v>3741</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="3">
         <v>226</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="3">
         <v>178</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="3">
         <v>135</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="3">
         <v>79</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="3">
         <v>95</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="3">
         <v>105</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="3">
         <v>76</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="3">
         <v>56</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="3">
         <v>29</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="3">
         <v>35</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N34" s="3">
         <v>29</v>
       </c>
-      <c r="O34" s="7">
+      <c r="O34" s="3">
         <v>20</v>
       </c>
-      <c r="P34" s="7">
+      <c r="P34" s="3">
         <v>12</v>
       </c>
-      <c r="Q34" s="7">
+      <c r="Q34" s="3">
         <v>9</v>
       </c>
-      <c r="R34" s="7">
+      <c r="R34" s="3">
         <v>13</v>
       </c>
-      <c r="S34" s="7">
+      <c r="S34" s="3">
         <v>6</v>
       </c>
-      <c r="T34" s="7">
+      <c r="T34" s="3">
         <v>1</v>
       </c>
-      <c r="U34" s="7">
+      <c r="U34" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="3">
         <v>2005</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="3">
         <v>1674</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="3">
         <v>1439</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="3">
         <v>1891</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="3">
         <v>1671</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="3">
         <v>1741</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="3">
         <v>1640</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="3">
         <v>1751</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="3">
         <v>1634</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M35" s="3">
         <v>1500</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N35" s="3">
         <v>1348</v>
       </c>
-      <c r="O35" s="7">
+      <c r="O35" s="3">
         <v>997</v>
       </c>
-      <c r="P35" s="7">
+      <c r="P35" s="3">
         <v>762</v>
       </c>
-      <c r="Q35" s="7">
+      <c r="Q35" s="3">
         <v>655</v>
       </c>
-      <c r="R35" s="7">
+      <c r="R35" s="3">
         <v>851</v>
       </c>
-      <c r="S35" s="7">
+      <c r="S35" s="3">
         <v>437</v>
       </c>
-      <c r="T35" s="7">
+      <c r="T35" s="3">
         <v>268</v>
       </c>
-      <c r="U35" s="7">
+      <c r="U35" s="3">
         <v>410</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="3">
         <v>22346</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="3">
         <v>17563</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="3">
         <v>9974</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="3">
         <v>9698</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="3">
         <v>10305</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="3">
         <v>10213</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="3">
         <v>11040</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36" s="3">
         <v>11888</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="3">
         <v>10694</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M36" s="3">
         <v>9747</v>
       </c>
-      <c r="N36" s="7">
+      <c r="N36" s="3">
         <v>8984</v>
       </c>
-      <c r="O36" s="7">
+      <c r="O36" s="3">
         <v>8090</v>
       </c>
-      <c r="P36" s="7">
+      <c r="P36" s="3">
         <v>7549</v>
       </c>
-      <c r="Q36" s="7">
+      <c r="Q36" s="3">
         <v>7137</v>
       </c>
-      <c r="R36" s="7">
+      <c r="R36" s="3">
         <v>9167</v>
       </c>
-      <c r="S36" s="7">
+      <c r="S36" s="3">
         <v>5546</v>
       </c>
-      <c r="T36" s="7">
+      <c r="T36" s="3">
         <v>5033</v>
       </c>
-      <c r="U36" s="7">
+      <c r="U36" s="3">
         <v>4549</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="3">
         <v>14334</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="3">
         <v>12543</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="3">
         <v>6602</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="3">
         <v>6221</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="3">
         <v>7066</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="3">
         <v>7050</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="3">
         <v>7784</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="3">
         <v>8446</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="3">
         <v>8380</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M37" s="3">
         <v>8094</v>
       </c>
-      <c r="N37" s="7">
+      <c r="N37" s="3">
         <v>8015</v>
       </c>
-      <c r="O37" s="7">
+      <c r="O37" s="3">
         <v>7081</v>
       </c>
-      <c r="P37" s="7">
+      <c r="P37" s="3">
         <v>7025</v>
       </c>
-      <c r="Q37" s="7">
+      <c r="Q37" s="3">
         <v>7159</v>
       </c>
-      <c r="R37" s="7">
+      <c r="R37" s="3">
         <v>8714</v>
       </c>
-      <c r="S37" s="7">
+      <c r="S37" s="3">
         <v>6224</v>
       </c>
-      <c r="T37" s="7">
+      <c r="T37" s="3">
         <v>6245</v>
       </c>
-      <c r="U37" s="7">
+      <c r="U37" s="3">
         <v>5767</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="3">
         <v>4880</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="3">
         <v>4732</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="3">
         <v>2448</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="3">
         <v>2265</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="3">
         <v>2675</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="3">
         <v>2871</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="3">
         <v>3267</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="3">
         <v>3603</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38" s="3">
         <v>3351</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M38" s="3">
         <v>3303</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N38" s="3">
         <v>3286</v>
       </c>
-      <c r="O38" s="7">
+      <c r="O38" s="3">
         <v>2823</v>
       </c>
-      <c r="P38" s="7">
+      <c r="P38" s="3">
         <v>2998</v>
       </c>
-      <c r="Q38" s="7">
+      <c r="Q38" s="3">
         <v>2967</v>
       </c>
-      <c r="R38" s="7">
+      <c r="R38" s="3">
         <v>3702</v>
       </c>
-      <c r="S38" s="7">
+      <c r="S38" s="3">
         <v>2491</v>
       </c>
-      <c r="T38" s="7">
+      <c r="T38" s="3">
         <v>2266</v>
       </c>
-      <c r="U38" s="7">
+      <c r="U38" s="3">
         <v>2257</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="3">
         <v>225</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="3">
         <v>157</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="3">
         <v>92</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="3">
         <v>178</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="3">
         <v>145</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="3">
         <v>152</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="3">
         <v>182</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39" s="3">
         <v>196</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="3">
         <v>198</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M39" s="3">
         <v>208</v>
       </c>
-      <c r="N39" s="7">
+      <c r="N39" s="3">
         <v>188</v>
       </c>
-      <c r="O39" s="7">
+      <c r="O39" s="3">
         <v>215</v>
       </c>
-      <c r="P39" s="7">
+      <c r="P39" s="3">
         <v>197</v>
       </c>
-      <c r="Q39" s="7">
+      <c r="Q39" s="3">
         <v>243</v>
       </c>
-      <c r="R39" s="7">
+      <c r="R39" s="3">
         <v>271</v>
       </c>
-      <c r="S39" s="7">
+      <c r="S39" s="3">
         <v>205</v>
       </c>
-      <c r="T39" s="7">
+      <c r="T39" s="3">
         <v>241</v>
       </c>
-      <c r="U39" s="7">
+      <c r="U39" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="3">
         <v>10</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="3">
         <v>12</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="3">
         <v>9</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="3">
         <v>4</v>
       </c>
-      <c r="H40" s="7">
-        <v>3</v>
-      </c>
-      <c r="I40" s="7">
+      <c r="H40" s="3">
+        <v>3</v>
+      </c>
+      <c r="I40" s="3">
         <v>9</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="3">
         <v>0</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K40" s="3">
         <v>1</v>
       </c>
-      <c r="L40" s="7">
-        <v>3</v>
-      </c>
-      <c r="M40" s="7">
+      <c r="L40" s="3">
+        <v>3</v>
+      </c>
+      <c r="M40" s="3">
         <v>4</v>
       </c>
-      <c r="N40" s="7">
+      <c r="N40" s="3">
         <v>2</v>
       </c>
-      <c r="O40" s="7">
+      <c r="O40" s="3">
         <v>0</v>
       </c>
-      <c r="P40" s="7">
+      <c r="P40" s="3">
         <v>0</v>
       </c>
-      <c r="Q40" s="7">
+      <c r="Q40" s="3">
         <v>1</v>
       </c>
-      <c r="R40" s="7">
+      <c r="R40" s="3">
         <v>1</v>
       </c>
-      <c r="S40" s="7">
+      <c r="S40" s="3">
         <v>2</v>
       </c>
-      <c r="T40" s="7">
+      <c r="T40" s="3">
         <v>2</v>
       </c>
-      <c r="U40" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="U40" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="4">
         <v>44026</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="4">
         <v>36859</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="4">
         <v>20699</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="4">
         <v>20336</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="4">
         <v>21960</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="4">
         <v>22141</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J41" s="4">
         <v>23989</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K41" s="4">
         <v>25941</v>
       </c>
-      <c r="L41" s="8">
+      <c r="L41" s="4">
         <v>24289</v>
       </c>
-      <c r="M41" s="8">
+      <c r="M41" s="4">
         <v>22891</v>
       </c>
-      <c r="N41" s="8">
+      <c r="N41" s="4">
         <v>21852</v>
       </c>
-      <c r="O41" s="8">
+      <c r="O41" s="4">
         <v>19226</v>
       </c>
-      <c r="P41" s="8">
+      <c r="P41" s="4">
         <v>18543</v>
       </c>
-      <c r="Q41" s="8">
+      <c r="Q41" s="4">
         <v>18171</v>
       </c>
-      <c r="R41" s="8">
+      <c r="R41" s="4">
         <v>22719</v>
       </c>
-      <c r="S41" s="8">
+      <c r="S41" s="4">
         <v>14911</v>
       </c>
-      <c r="T41" s="8">
+      <c r="T41" s="4">
         <v>14056</v>
       </c>
-      <c r="U41" s="8">
+      <c r="U41" s="4">
         <v>13171</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="3">
         <v>289</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="3">
         <v>228</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="3">
         <v>174</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="3">
         <v>110</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="3">
         <v>135</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="3">
         <v>147</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="3">
         <v>110</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="3">
         <v>102</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42" s="3">
         <v>50</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M42" s="3">
         <v>49</v>
       </c>
-      <c r="N42" s="7">
+      <c r="N42" s="3">
         <v>46</v>
       </c>
-      <c r="O42" s="7">
+      <c r="O42" s="3">
         <v>31</v>
       </c>
-      <c r="P42" s="7">
+      <c r="P42" s="3">
         <v>19</v>
       </c>
-      <c r="Q42" s="7">
+      <c r="Q42" s="3">
         <v>12</v>
       </c>
-      <c r="R42" s="7">
+      <c r="R42" s="3">
         <v>14</v>
       </c>
-      <c r="S42" s="7">
+      <c r="S42" s="3">
         <v>9</v>
       </c>
-      <c r="T42" s="7">
+      <c r="T42" s="3">
         <v>1</v>
       </c>
-      <c r="U42" s="7">
+      <c r="U42" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="3">
         <v>2457</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="3">
         <v>1949</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="3">
         <v>1731</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="3">
         <v>2226</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="3">
         <v>2067</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="3">
         <v>2165</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="3">
         <v>2121</v>
       </c>
-      <c r="K43" s="7">
+      <c r="K43" s="3">
         <v>2360</v>
       </c>
-      <c r="L43" s="7">
+      <c r="L43" s="3">
         <v>2128</v>
       </c>
-      <c r="M43" s="7">
+      <c r="M43" s="3">
         <v>1888</v>
       </c>
-      <c r="N43" s="7">
+      <c r="N43" s="3">
         <v>1757</v>
       </c>
-      <c r="O43" s="7">
+      <c r="O43" s="3">
         <v>1348</v>
       </c>
-      <c r="P43" s="7">
+      <c r="P43" s="3">
         <v>1039</v>
       </c>
-      <c r="Q43" s="7">
+      <c r="Q43" s="3">
         <v>886</v>
       </c>
-      <c r="R43" s="7">
+      <c r="R43" s="3">
         <v>1134</v>
       </c>
-      <c r="S43" s="7">
+      <c r="S43" s="3">
         <v>581</v>
       </c>
-      <c r="T43" s="7">
+      <c r="T43" s="3">
         <v>350</v>
       </c>
-      <c r="U43" s="7">
+      <c r="U43" s="3">
         <v>538</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="3">
         <v>25404</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="3">
         <v>19489</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="3">
         <v>11527</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="3">
         <v>11231</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="3">
         <v>12039</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="3">
         <v>12037</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="3">
         <v>13468</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K44" s="3">
         <v>14225</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L44" s="3">
         <v>12880</v>
       </c>
-      <c r="M44" s="7">
+      <c r="M44" s="3">
         <v>11954</v>
       </c>
-      <c r="N44" s="7">
+      <c r="N44" s="3">
         <v>11081</v>
       </c>
-      <c r="O44" s="7">
+      <c r="O44" s="3">
         <v>9960</v>
       </c>
-      <c r="P44" s="7">
+      <c r="P44" s="3">
         <v>9728</v>
       </c>
-      <c r="Q44" s="7">
+      <c r="Q44" s="3">
         <v>9230</v>
       </c>
-      <c r="R44" s="7">
+      <c r="R44" s="3">
         <v>11860</v>
       </c>
-      <c r="S44" s="7">
+      <c r="S44" s="3">
         <v>7318</v>
       </c>
-      <c r="T44" s="7">
+      <c r="T44" s="3">
         <v>6591</v>
       </c>
-      <c r="U44" s="7">
+      <c r="U44" s="3">
         <v>5919</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="3">
         <v>15628</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="3">
         <v>13617</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="3">
         <v>7554</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="3">
         <v>7368</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="3">
         <v>8270</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="3">
         <v>8490</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="3">
         <v>9653</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45" s="3">
         <v>10221</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45" s="3">
         <v>10103</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M45" s="3">
         <v>9775</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N45" s="3">
         <v>9802</v>
       </c>
-      <c r="O45" s="7">
+      <c r="O45" s="3">
         <v>8838</v>
       </c>
-      <c r="P45" s="7">
+      <c r="P45" s="3">
         <v>8983</v>
       </c>
-      <c r="Q45" s="7">
+      <c r="Q45" s="3">
         <v>9088</v>
       </c>
-      <c r="R45" s="7">
+      <c r="R45" s="3">
         <v>10949</v>
       </c>
-      <c r="S45" s="7">
+      <c r="S45" s="3">
         <v>7990</v>
       </c>
-      <c r="T45" s="7">
+      <c r="T45" s="3">
         <v>7922</v>
       </c>
-      <c r="U45" s="7">
+      <c r="U45" s="3">
         <v>7311</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="3">
         <v>5293</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="3">
         <v>5154</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="3">
         <v>2843</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="3">
         <v>2717</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="3">
         <v>3189</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="3">
         <v>3497</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="3">
         <v>3980</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K46" s="3">
         <v>4311</v>
       </c>
-      <c r="L46" s="7">
+      <c r="L46" s="3">
         <v>3992</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M46" s="3">
         <v>3957</v>
       </c>
-      <c r="N46" s="7">
+      <c r="N46" s="3">
         <v>4059</v>
       </c>
-      <c r="O46" s="7">
+      <c r="O46" s="3">
         <v>3461</v>
       </c>
-      <c r="P46" s="7">
+      <c r="P46" s="3">
         <v>3768</v>
       </c>
-      <c r="Q46" s="7">
+      <c r="Q46" s="3">
         <v>3723</v>
       </c>
-      <c r="R46" s="7">
+      <c r="R46" s="3">
         <v>4607</v>
       </c>
-      <c r="S46" s="7">
+      <c r="S46" s="3">
         <v>3200</v>
       </c>
-      <c r="T46" s="7">
+      <c r="T46" s="3">
         <v>2897</v>
       </c>
-      <c r="U46" s="7">
+      <c r="U46" s="3">
         <v>2891</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="3">
         <v>260</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="3">
         <v>186</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="3">
         <v>128</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="3">
         <v>228</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="3">
         <v>174</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="3">
         <v>196</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="3">
         <v>245</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K47" s="3">
         <v>247</v>
       </c>
-      <c r="L47" s="7">
+      <c r="L47" s="3">
         <v>247</v>
       </c>
-      <c r="M47" s="7">
+      <c r="M47" s="3">
         <v>261</v>
       </c>
-      <c r="N47" s="7">
+      <c r="N47" s="3">
         <v>242</v>
       </c>
-      <c r="O47" s="7">
+      <c r="O47" s="3">
         <v>274</v>
       </c>
-      <c r="P47" s="7">
+      <c r="P47" s="3">
         <v>254</v>
       </c>
-      <c r="Q47" s="7">
+      <c r="Q47" s="3">
         <v>320</v>
       </c>
-      <c r="R47" s="7">
+      <c r="R47" s="3">
         <v>360</v>
       </c>
-      <c r="S47" s="7">
+      <c r="S47" s="3">
         <v>258</v>
       </c>
-      <c r="T47" s="7">
+      <c r="T47" s="3">
         <v>291</v>
       </c>
-      <c r="U47" s="7">
+      <c r="U47" s="3">
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="3">
         <v>10</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="3">
         <v>12</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="3">
         <v>10</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="3">
         <v>4</v>
       </c>
-      <c r="H48" s="7">
-        <v>3</v>
-      </c>
-      <c r="I48" s="7">
+      <c r="H48" s="3">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3">
         <v>11</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K48" s="3">
         <v>1</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L48" s="3">
         <v>4</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M48" s="3">
         <v>5</v>
       </c>
-      <c r="N48" s="7">
-        <v>3</v>
-      </c>
-      <c r="O48" s="7">
+      <c r="N48" s="3">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3">
         <v>2</v>
       </c>
-      <c r="P48" s="7">
+      <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="7">
+      <c r="Q48" s="3">
         <v>1</v>
       </c>
-      <c r="R48" s="7">
+      <c r="R48" s="3">
         <v>4</v>
       </c>
-      <c r="S48" s="7">
+      <c r="S48" s="3">
         <v>6</v>
       </c>
-      <c r="T48" s="7">
+      <c r="T48" s="3">
         <v>2</v>
       </c>
-      <c r="U48" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+      <c r="U48" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="4">
         <v>49341</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="4">
         <v>40635</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="4">
         <v>23967</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="4">
         <v>23884</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="4">
         <v>25877</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I49" s="4">
         <v>26543</v>
       </c>
-      <c r="J49" s="8">
+      <c r="J49" s="4">
         <v>29577</v>
       </c>
-      <c r="K49" s="8">
+      <c r="K49" s="4">
         <v>31467</v>
       </c>
-      <c r="L49" s="8">
+      <c r="L49" s="4">
         <v>29404</v>
       </c>
-      <c r="M49" s="8">
+      <c r="M49" s="4">
         <v>27889</v>
       </c>
-      <c r="N49" s="8">
+      <c r="N49" s="4">
         <v>26990</v>
       </c>
-      <c r="O49" s="8">
+      <c r="O49" s="4">
         <v>23914</v>
       </c>
-      <c r="P49" s="8">
+      <c r="P49" s="4">
         <v>23791</v>
       </c>
-      <c r="Q49" s="8">
+      <c r="Q49" s="4">
         <v>23260</v>
       </c>
-      <c r="R49" s="8">
+      <c r="R49" s="4">
         <v>28928</v>
       </c>
-      <c r="S49" s="8">
+      <c r="S49" s="4">
         <v>19362</v>
       </c>
-      <c r="T49" s="8">
+      <c r="T49" s="4">
         <v>18054</v>
       </c>
-      <c r="U49" s="8">
+      <c r="U49" s="4">
         <v>16912</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>